--- a/Supports files/member_category.xlsx
+++ b/Supports files/member_category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8351B268-54E1-4E2B-B3AA-7B2265E73CDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A357B-40F2-40DC-800A-148F3141B8AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>si</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>clergy</t>
   </si>
 </sst>
 </file>
@@ -484,7 +487,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,6 +564,9 @@
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">

--- a/Supports files/member_category.xlsx
+++ b/Supports files/member_category.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20361"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91A357B-40F2-40DC-800A-148F3141B8AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFFD4584-B6BC-4D5E-A06E-378C5B3DAE89}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7680" tabRatio="634" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>si</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>clergy</t>
+  </si>
+  <si>
+    <t>lending_imit</t>
+  </si>
+  <si>
+    <t>lending_period</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{985DC7FA-FF2D-4D74-9933-E899409665F3}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,11 +501,12 @@
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="15.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="21.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="4" max="4" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,8 +519,14 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -523,8 +536,14 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" s="2">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -534,8 +553,14 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -545,8 +570,14 @@
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -556,8 +587,14 @@
       <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -567,8 +604,14 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -576,6 +619,12 @@
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
         <v>14</v>
       </c>
     </row>
